--- a/Ch03_動的最適化/価値反復_非同期型_vx01.xlsx
+++ b/Ch03_動的最適化/価値反復_非同期型_vx01.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42EC5EC-79BB-894A-9A2F-23A09DCC7A87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C55F87-2CF2-4625-A56B-1F5525C04892}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1177,6 +1171,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,12 +1190,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1481,31 +1475,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.6875" style="4" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.1640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="6.33203125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="3.1875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9.1875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.3125" style="4" customWidth="1"/>
     <col min="11" max="12" width="9.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.3125" style="4" customWidth="1"/>
     <col min="16" max="16" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="4"/>
-    <col min="18" max="20" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="7.3125" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="5.6875" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="33" customFormat="1" ht="21" thickBot="1">
+    <row r="1" spans="1:27" s="33" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>38</v>
       </c>
@@ -1568,44 +1562,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="19" thickBot="1">
+    <row r="6" spans="1:27" ht="18" thickBot="1">
       <c r="R6" s="30"/>
       <c r="V6" s="31"/>
     </row>
-    <row r="7" spans="1:27" ht="23" thickBot="1">
-      <c r="G7" s="51" t="s">
+    <row r="7" spans="1:27" ht="19.5" thickBot="1">
+      <c r="G7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="51" t="s">
+      <c r="H7" s="54"/>
+      <c r="I7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="51" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="51" t="s">
+      <c r="L7" s="54"/>
+      <c r="M7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="54"/>
       <c r="O7" s="6"/>
-      <c r="R7" s="48" t="s">
+      <c r="R7" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="48" t="s">
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="50"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="52"/>
     </row>
-    <row r="8" spans="1:27" ht="22">
+    <row r="8" spans="1:27" ht="19.149999999999999">
       <c r="B8" s="23" t="s">
         <v>0</v>
       </c>
@@ -1761,15 +1755,15 @@
         <f>IF(R9+R$5&lt;S9+S$5,1,0)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="54">
+      <c r="X9" s="49">
         <f>IF(R9+R$5&lt;T9+T$5,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="54">
-        <f t="shared" ref="Y9:Y39" si="3">IF(S9+S$5&lt;U9+U$5,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="54">
+      <c r="Y9" s="49">
+        <f t="shared" ref="Y9" si="3">IF(S9+S$5&lt;U9+U$5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="49">
         <f>IF(T9+T$5&lt;V9+V$5,1,0)</f>
         <v>1</v>
       </c>
@@ -4706,7 +4700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:27" ht="19" thickBot="1">
+    <row r="39" spans="2:27" ht="18" thickBot="1">
       <c r="B39" s="25">
         <f t="shared" si="25"/>
         <v>30</v>
@@ -4787,7 +4781,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="W39" s="53">
+      <c r="W39" s="48">
         <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
